--- a/CaseAndFatalityDemographicsData/2021-11-05.xlsx
+++ b/CaseAndFatalityDemographicsData/2021-11-05.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfreeland361\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\11.04.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{702924F8-E681-4849-B073-1DCDD9C37536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E92332-4C08-4067-8BA4-3B093C630310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" tabRatio="806" firstSheet="4" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="806" firstSheet="1" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by Age Group" sheetId="3" r:id="rId1"/>
     <sheet name="Cases by Gender" sheetId="4" r:id="rId2"/>
     <sheet name="Cases by RaceEthnicity" sheetId="5" r:id="rId3"/>
-    <sheet name="Fatalities by Age Group" sheetId="6" r:id="rId4"/>
-    <sheet name="Fatalities by Gender" sheetId="7" r:id="rId5"/>
+    <sheet name="Fatalities by Gender" sheetId="7" r:id="rId4"/>
+    <sheet name="Fatalities by Age Group" sheetId="6" r:id="rId5"/>
     <sheet name="Fatalities by Race-Ethnicity" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -625,12 +625,12 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -653,7 +653,7 @@
         <v>3.6303993439278323E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -665,7 +665,7 @@
         <v>2.0212223344567903E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -677,7 +677,7 @@
         <v>5.3705907649841483E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -689,7 +689,7 @@
         <v>0.20392243146746142</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -701,7 +701,7 @@
         <v>0.21491364050045506</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -713,7 +713,7 @@
         <v>0.18597045675024251</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -725,7 +725,7 @@
         <v>0.1542469671663883</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -737,7 +737,7 @@
         <v>5.5966156277190489E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -749,7 +749,7 @@
         <v>3.8454229965296183E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -761,7 +761,7 @@
         <v>2.4362679894788426E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -773,7 +773,7 @@
         <v>1.6551820700277029E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -785,7 +785,7 @@
         <v>2.7663042934722819E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -797,7 +797,7 @@
         <v>4.0004400484053244E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -824,9 +824,9 @@
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -853,7 +853,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -869,7 +869,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -885,7 +885,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -915,12 +915,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.87890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -936,7 +936,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -968,7 +968,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="18"/>
     </row>
-    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -984,7 +984,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="18"/>
     </row>
-    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1000,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="18"/>
     </row>
-    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1016,7 +1016,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1032,7 +1032,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="18"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1050,81 +1050,81 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="21"/>
       <c r="B18" s="18"/>
       <c r="C18" s="22"/>
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="21"/>
       <c r="B19" s="18"/>
       <c r="C19" s="22"/>
       <c r="D19" s="18"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E20" s="18"/>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
@@ -1137,6 +1137,80 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92BAF56-3443-4211-AC39-FD818DE6BEEB}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6">
+        <v>29517</v>
+      </c>
+      <c r="C2" s="9">
+        <f>B2/$B$5</f>
+        <v>0.41824777181074918</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6">
+        <v>41055</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
+        <v>0.58173805846428517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4169724965638417E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
+        <v>70573</v>
+      </c>
+      <c r="C5" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F742947-EAB5-4DCC-A1CA-1F4AA7362BD3}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -1144,12 +1218,12 @@
       <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -1160,19 +1234,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>1.8612375798184578E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.9837614951893784E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1181,10 +1255,10 @@
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>2.8634424304899348E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.8339449931276834E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1193,118 +1267,118 @@
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>1.0881081235861753E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.0768990973885196E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>8.7048649886894026E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.7427203037989034E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>1946</v>
+        <v>2002</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>2.7861294848667069E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.8367789381208111E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>4846</v>
+        <v>4927</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>6.9381210090771125E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.9814234905700476E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>9231</v>
+        <v>9379</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0.13216218537926294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1328978504527227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>7077</v>
+        <v>7151</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>0.10132291040288635</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.10132770322928032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>8391</v>
+        <v>8485</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>0.12013572717120523</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.12023011633344197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>8962</v>
+        <v>9041</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>0.12831085531025399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.12810848341433692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>8506</v>
+        <v>8570</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>0.12178220656873694</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.12143454295552124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>20170</v>
+        <v>20291</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>0.28877816911490994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.28751788927776911</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -1316,88 +1390,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="7">
-        <v>69846</v>
+        <v>70573</v>
       </c>
       <c r="C15" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92BAF56-3443-4211-AC39-FD818DE6BEEB}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="6">
-        <v>29201</v>
-      </c>
-      <c r="C2" s="9">
-        <f>B2/$B$5</f>
-        <v>0.41807691206368297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6">
-        <v>40644</v>
-      </c>
-      <c r="C3" s="9">
-        <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.58190877072416458</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9">
-        <f t="shared" si="0"/>
-        <v>1.4317212152449674E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1">
-        <v>69846</v>
-      </c>
-      <c r="C5" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1412,15 +1412,15 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.87890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1431,64 +1431,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="6">
-        <v>1296</v>
+        <v>1307</v>
       </c>
       <c r="C2" s="9">
         <f t="shared" ref="C2" si="0">B2/$B$8</f>
-        <v>1.8555106949574778E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1.8519830530089411E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B3">
-        <v>7310</v>
+        <v>7423</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C8" si="1">B3/$B$8</f>
-        <v>0.10465882083440713</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.10518186841993397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="6">
-        <v>30565</v>
+        <v>30863</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="1"/>
-        <v>0.4376055894396243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.43732022161449846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="6">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="1"/>
-        <v>5.8986914068092661E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>5.9371147606024971E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="6">
-        <v>30221</v>
+        <v>30517</v>
       </c>
       <c r="C6" s="9">
         <f>B6/$B$8</f>
-        <v>0.43268046845918162</v>
+        <v>0.43241749677638758</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
@@ -1500,16 +1500,16 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="6">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="1"/>
-        <v>6.0132291040288638E-4</v>
+        <v>6.234678984880903E-4</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="24"/>
@@ -1521,13 +1521,13 @@
       <c r="N7" s="25"/>
       <c r="O7" s="23"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>69846</v>
+        <v>70573</v>
       </c>
       <c r="C8" s="13">
         <f t="shared" si="1"/>
@@ -1543,7 +1543,7 @@
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
